--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Sprint-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA053541-1603-4449-BFF9-F6DC107413D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E6A367-17FB-4797-AF0C-AC699E995EA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{CB2EB439-C99F-4E98-BF71-030BD66592B5}"/>
   </bookViews>
@@ -291,6 +291,34 @@
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,39 +343,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,7 +666,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -681,162 +681,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="203" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
